--- a/IdUnico - enviado para o professor/Prática_Qualidade.xlsx
+++ b/IdUnico - enviado para o professor/Prática_Qualidade.xlsx
@@ -16,6 +16,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">DEFEITOS!$C$4:$F$4</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">DEFEITOS!$C$4:$F$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">DEFEITOS!$C$4:$F$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -606,13 +607,13 @@
     <t>Métricas do Processo (Indicadores da Qualidade)</t>
   </si>
   <si>
-    <t>1. Auditoria com fornecedor de peças analizando se estão conseguindo entregar o solicitado no pedido. </t>
+    <t>1. Auditoria com fornecedor de peças analisando se estão conseguindo entregar o solicitado no pedido. </t>
   </si>
   <si>
     <t>2. Auditoria nos processos de testes, visando garantir que estão contemplando os requisitos não funcionais. Ex.(Se a base de dados está realmente disponivelem 99,5% do tempo).</t>
   </si>
   <si>
-    <t>3. todas as premissas serem sanadas antes do incicio da implantação do chip</t>
+    <t>3. todas as premissas serem sanadas antes do início da implantação do chip</t>
   </si>
   <si>
     <t>4. Auditar se a divulgação sobre implementação será realizada em todas as mídias de comunicação publica </t>
@@ -642,7 +643,7 @@
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -682,21 +683,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -739,7 +727,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF969696"/>
-        <bgColor rgb="FF878787"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -851,15 +839,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -889,7 +877,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FFC0504D"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -914,7 +902,7 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF4BACC6"/>
       <rgbColor rgb="FF9BBB59"/>
       <rgbColor rgb="FFFFCC00"/>
@@ -929,7 +917,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -939,29 +927,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Chart Title</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1041,8 +1006,8 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="0"/>
-        <c:axId val="5019644"/>
-        <c:axId val="3579480"/>
+        <c:axId val="19882038"/>
+        <c:axId val="68002142"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1071,6 +1036,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
@@ -1134,12 +1108,12 @@
           <c:upBars/>
           <c:downBars/>
         </c:upDownBars>
-        <c:marker val="0"/>
-        <c:axId val="53558365"/>
-        <c:axId val="23859623"/>
+        <c:marker val="1"/>
+        <c:axId val="15020658"/>
+        <c:axId val="91643608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5019644"/>
+        <c:axId val="19882038"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,14 +1130,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="3579480"/>
+        <c:crossAx val="68002142"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3579480"/>
+        <c:axId val="68002142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,11 +1161,11 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="5019644"/>
+        <c:crossAx val="19882038"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="53558365"/>
+        <c:axId val="15020658"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,14 +1182,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="23859623"/>
+        <c:crossAx val="91643608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23859623"/>
+        <c:axId val="91643608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1203,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="53558365"/>
+        <c:crossAx val="15020658"/>
         <c:crosses val="max"/>
       </c:valAx>
       <c:spPr>
@@ -1269,29 +1243,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Produtividade (Pontos de Função/Programador*Dia)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1414,11 +1365,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="89477606"/>
-        <c:axId val="39297786"/>
+        <c:axId val="87708843"/>
+        <c:axId val="5025750"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89477606"/>
+        <c:axId val="87708843"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,11 +1396,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="39297786"/>
+        <c:crossAx val="5025750"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39297786"/>
+        <c:axId val="5025750"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1427,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="89477606"/>
+        <c:crossAx val="87708843"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1506,29 +1457,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Quantidade de Defeitos/Módulo</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1621,11 +1549,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="32186086"/>
-        <c:axId val="16000187"/>
+        <c:axId val="80503327"/>
+        <c:axId val="27591279"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32186086"/>
+        <c:axId val="80503327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,11 +1580,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="16000187"/>
+        <c:crossAx val="27591279"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16000187"/>
+        <c:axId val="27591279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,7 +1611,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32186086"/>
+        <c:crossAx val="80503327"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1742,6 +1670,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -1974,6 +1911,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -2206,6 +2152,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -2438,6 +2393,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -2670,6 +2634,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -2902,6 +2875,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -3121,12 +3103,12 @@
           <c:upBars/>
           <c:downBars/>
         </c:upDownBars>
-        <c:marker val="0"/>
-        <c:axId val="83585672"/>
-        <c:axId val="73570794"/>
+        <c:marker val="1"/>
+        <c:axId val="26862279"/>
+        <c:axId val="78929259"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83585672"/>
+        <c:axId val="26862279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3143,14 +3125,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="73570794"/>
+        <c:crossAx val="78929259"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73570794"/>
+        <c:axId val="78929259"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3174,7 +3156,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83585672"/>
+        <c:crossAx val="26862279"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3243,6 +3225,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -3475,6 +3466,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -3707,6 +3707,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -3939,6 +3948,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -4171,6 +4189,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -4403,6 +4430,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
@@ -4622,12 +4658,12 @@
           <c:upBars/>
           <c:downBars/>
         </c:upDownBars>
-        <c:marker val="0"/>
-        <c:axId val="43672107"/>
-        <c:axId val="90056070"/>
+        <c:marker val="1"/>
+        <c:axId val="95372353"/>
+        <c:axId val="96375898"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43672107"/>
+        <c:axId val="95372353"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4644,14 +4680,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90056070"/>
+        <c:crossAx val="96375898"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90056070"/>
+        <c:axId val="96375898"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4675,7 +4711,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="43672107"/>
+        <c:crossAx val="95372353"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4716,15 +4752,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>588600</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3240</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4732,8 +4768,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4093200" y="2886480"/>
-        <a:ext cx="5252040" cy="3490560"/>
+        <a:off x="4120200" y="2877480"/>
+        <a:ext cx="5251680" cy="3490200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4751,15 +4787,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>340920</xdr:colOff>
+      <xdr:colOff>367560</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4767,8 +4803,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="27000" y="3643560"/>
-        <a:ext cx="4753080" cy="2742840"/>
+        <a:off x="54000" y="3634560"/>
+        <a:ext cx="4752720" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4781,15 +4817,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>484200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:colOff>511200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>377640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
+      <xdr:colOff>53280</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4797,8 +4833,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4311000" y="1195920"/>
-        <a:ext cx="4731840" cy="2742840"/>
+        <a:off x="4338000" y="1186920"/>
+        <a:ext cx="4731480" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4816,15 +4852,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>312840</xdr:colOff>
+      <xdr:colOff>339840</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>846000</xdr:colOff>
+      <xdr:colOff>872640</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4832,8 +4868,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="312840" y="4563000"/>
-        <a:ext cx="7502040" cy="3923640"/>
+        <a:off x="339840" y="4554000"/>
+        <a:ext cx="7501680" cy="3923280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4846,15 +4882,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>160200</xdr:colOff>
+      <xdr:colOff>187200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>597960</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12600</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4862,8 +4898,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4572000" y="4143600"/>
-        <a:ext cx="9081360" cy="4390560"/>
+        <a:off x="4599000" y="4134600"/>
+        <a:ext cx="9081000" cy="4390200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7438,7 +7474,7 @@
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
         <v>153</v>
       </c>
@@ -9119,7 +9155,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9240,6 +9276,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:F1"/>
